--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2996349.833477598</v>
+        <v>2993806.023970515</v>
       </c>
     </row>
     <row r="7">
@@ -674,7 +674,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>220.7742444965155</v>
+        <v>259.6326967715747</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -710,19 +710,19 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>155.2537761190401</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>203.8804318482953</v>
       </c>
     </row>
     <row r="4">
@@ -820,13 +820,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>163.5658773996764</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>260.2363572824534</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>212.5689651179051</v>
+        <v>259.6326967715747</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="W5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="X5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.4695742187183</v>
+        <v>77.09393081742164</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>83.43224246993569</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>65.7703029528504</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>320.331151896089</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465022</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>219.1455308645174</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>143.292763228856</v>
       </c>
       <c r="G9" t="n">
-        <v>133.5587268592485</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
         <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611523</v>
+        <v>20.24979976115235</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>170.5614640466874</v>
+        <v>107.498506557359</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.017717176682</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>74.20064764874431</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2321,13 +2321,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.93222849083725</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>245.8796921214435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>147.6895341487369</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="33">
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710091</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>62.18842302760134</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>380.4820441686398</v>
+        <v>419.733006062639</v>
       </c>
       <c r="C2" t="n">
-        <v>380.4820441686398</v>
+        <v>419.733006062639</v>
       </c>
       <c r="D2" t="n">
-        <v>380.4820441686398</v>
+        <v>419.733006062639</v>
       </c>
       <c r="E2" t="n">
-        <v>380.4820441686398</v>
+        <v>419.733006062639</v>
       </c>
       <c r="F2" t="n">
-        <v>373.5365434194364</v>
+        <v>412.7875053134355</v>
       </c>
       <c r="G2" t="n">
-        <v>360.5727306459919</v>
+        <v>399.823692539991</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757742</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>646.8597007358178</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V2" t="n">
-        <v>646.8597007358178</v>
+        <v>419.733006062639</v>
       </c>
       <c r="W2" t="n">
-        <v>646.8597007358178</v>
+        <v>419.733006062639</v>
       </c>
       <c r="X2" t="n">
-        <v>380.4820441686398</v>
+        <v>419.733006062639</v>
       </c>
       <c r="Y2" t="n">
-        <v>380.4820441686398</v>
+        <v>419.733006062639</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.7220043479542</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>329.2689750668272</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
         <v>21.09711040012049</v>
@@ -4410,49 +4410,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957459</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298712</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>433.126243926395</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110289999</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557296</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.176358389133</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>227.0369405499137</v>
       </c>
       <c r="X3" t="n">
-        <v>879.6976401329762</v>
+        <v>227.0369405499137</v>
       </c>
       <c r="Y3" t="n">
-        <v>671.9373413680223</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>634.9529738206666</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>466.0167908927597</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>315.900151480424</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
         <v>21.09711040012049</v>
@@ -4489,13 +4489,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>889.6374620265534</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="V4" t="n">
-        <v>634.9529738206666</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="W4" t="n">
-        <v>634.9529738206666</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="X4" t="n">
-        <v>634.9529738206666</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y4" t="n">
-        <v>634.9529738206666</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044907</v>
+        <v>419.733006062639</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W5" t="n">
-        <v>522.1002068716687</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X5" t="n">
-        <v>255.7225503044907</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="Y5" t="n">
-        <v>255.7225503044907</v>
+        <v>419.733006062639</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
         <v>21.09711040012049</v>
@@ -4647,16 +4647,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>503.6022960313624</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>713.6562631339674</v>
       </c>
       <c r="O6" t="n">
         <v>909.4672107560896</v>
@@ -4671,25 +4671,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742819</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460803</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="X6" t="n">
-        <v>357.6145548405475</v>
+        <v>273.4227970725825</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.8542560755936</v>
+        <v>273.4227970725825</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>424.4249251342376</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>255.4887422063307</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>105.3721027939949</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
         <v>21.09711040012049</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587012</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587012</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>762.9518343167155</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>826.8659691080074</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>606.0733899644773</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1965.21083637494</v>
+        <v>373.8967903081298</v>
       </c>
       <c r="C8" t="n">
-        <v>1596.248319434528</v>
+        <v>373.8967903081298</v>
       </c>
       <c r="D8" t="n">
-        <v>1237.982620827778</v>
+        <v>373.8967903081298</v>
       </c>
       <c r="E8" t="n">
-        <v>852.1943682295332</v>
+        <v>373.8967903081298</v>
       </c>
       <c r="F8" t="n">
-        <v>441.2084634399257</v>
+        <v>366.9512895589264</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428661</v>
+        <v>355.2854715909976</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J8" t="n">
-        <v>187.370225146718</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607432</v>
+        <v>442.1757437607425</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045945</v>
+        <v>795.186282904594</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995229</v>
+        <v>1219.647962995228</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209587</v>
+        <v>1655.591685209586</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940599</v>
+        <v>2053.905718940598</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550202</v>
+        <v>2359.3565305502</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661168</v>
+        <v>2540.564622661166</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="T8" t="n">
-        <v>2351.810676439061</v>
+        <v>2351.810676439059</v>
       </c>
       <c r="U8" t="n">
-        <v>2351.810676439061</v>
+        <v>2098.229497964629</v>
       </c>
       <c r="V8" t="n">
-        <v>2351.810676439061</v>
+        <v>1876.870375879257</v>
       </c>
       <c r="W8" t="n">
-        <v>2351.810676439061</v>
+        <v>1524.101720609143</v>
       </c>
       <c r="X8" t="n">
-        <v>2351.810676439061</v>
+        <v>1150.635962348063</v>
       </c>
       <c r="Y8" t="n">
-        <v>2351.810676439061</v>
+        <v>760.4966303722516</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010832</v>
+        <v>929.5097208010804</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199562</v>
+        <v>755.0566915199535</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587049</v>
+        <v>606.1222818587022</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532494</v>
+        <v>446.8848268532467</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801344</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>71.66559839993889</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637191</v>
+        <v>238.3188829507237</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148186</v>
+        <v>422.915879301823</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377483003</v>
+        <v>1056.655162486662</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.393778287031</v>
+        <v>1419.721630960964</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471871</v>
+        <v>1806.806033433533</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459261</v>
+        <v>2138.692843420923</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888886</v>
+        <v>2421.055229888883</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442631</v>
+        <v>2536.272628442628</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251704</v>
+        <v>2424.826280251701</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685353</v>
+        <v>2230.81647768535</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751582</v>
+        <v>2002.726321751579</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.57421351984</v>
+        <v>1767.574213519837</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791638</v>
+        <v>1513.336856791635</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586105</v>
+        <v>1305.485356586102</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821151</v>
+        <v>1097.725057821149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0542434877111</v>
+        <v>476.1390772876028</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1180605598042</v>
+        <v>307.202894359696</v>
       </c>
       <c r="D10" t="n">
-        <v>514.0014211474685</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="E10" t="n">
-        <v>366.0883275650754</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="F10" t="n">
-        <v>219.198380067165</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685577</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685577</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J10" t="n">
-        <v>76.6346830838017</v>
+        <v>76.63468308380158</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676571</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368925</v>
+        <v>523.3850043368923</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904043</v>
+        <v>823.8653899904039</v>
       </c>
       <c r="N10" t="n">
         <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1533.156055412621</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477364</v>
+        <v>1533.156055412621</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477364</v>
+        <v>1310.174753887026</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477364</v>
+        <v>1021.056380381668</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477364</v>
+        <v>766.371892175781</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.484838359498</v>
+        <v>657.7875421178426</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.495287461481</v>
+        <v>657.7875421178426</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.702708317951</v>
+        <v>657.7875421178426</v>
       </c>
     </row>
     <row r="11">
@@ -5021,70 +5021,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400676</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5203,46 +5203,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797705</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703073</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,28 +5270,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,13 +5303,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>335.9629114732377</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>335.9629114732377</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7668121881176</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>168.7668121881176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5501,16 +5501,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,40 +5522,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745235</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5887,34 +5887,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5969,10 +5969,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,10 +5984,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6215,58 +6215,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349512</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,25 +6476,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>633.992644467967</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7178,37 +7178,37 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611464</v>
@@ -7400,61 +7400,61 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7731,10 +7731,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4311299055732</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>612.4311299055732</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>465.5411824076629</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>298.3450831225428</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>156.6332519647409</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.262887399594291</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,19 +8295,19 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>26.13373767211351</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,25 +8529,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084424</v>
       </c>
       <c r="M9" t="n">
-        <v>255.2581536004329</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538085</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>35.68386670538916</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.134129107193195e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>3.296918293926865e-12</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194582</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>7.065188669821239</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538664</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>6.257951202384504</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9259388694754307</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.404764594808</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>19.07741329096418</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>734361.2112661655</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661658</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846405</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.609736506</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580803</v>
+        <v>390680.0076580795</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.232060692</v>
+        <v>507909.2320606927</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911425</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101798</v>
+        <v>95270.23779101775</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954686</v>
+        <v>132717.975695469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,43 +26418,43 @@
         <v>247648.5670423891</v>
       </c>
       <c r="C4" t="n">
-        <v>247648.5670423891</v>
+        <v>247648.567042389</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716741</v>
+        <v>135650.8557716744</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744271</v>
+        <v>8727.256391744311</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744346</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744308</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744369</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744228</v>
+        <v>8727.256391744286</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744346</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744242</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744202</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744284</v>
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567906</v>
+        <v>92902.867575679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-292898.8464532073</v>
+        <v>-292898.8464532075</v>
       </c>
       <c r="C6" t="n">
-        <v>387189.1341379856</v>
+        <v>387189.1341379858</v>
       </c>
       <c r="D6" t="n">
-        <v>78651.77337920704</v>
+        <v>78651.77337920762</v>
       </c>
       <c r="E6" t="n">
-        <v>68315.59146016178</v>
+        <v>68280.85353472596</v>
       </c>
       <c r="F6" t="n">
-        <v>576224.8235208543</v>
+        <v>576190.0855954188</v>
       </c>
       <c r="G6" t="n">
-        <v>576224.823520854</v>
+        <v>576190.0855954182</v>
       </c>
       <c r="H6" t="n">
-        <v>576224.8235208545</v>
+        <v>576190.0855954187</v>
       </c>
       <c r="I6" t="n">
-        <v>576224.8235208539</v>
+        <v>576190.0855954185</v>
       </c>
       <c r="J6" t="n">
-        <v>507225.6691017405</v>
+        <v>507190.9311763044</v>
       </c>
       <c r="K6" t="n">
-        <v>576224.8235208543</v>
+        <v>576190.0855954188</v>
       </c>
       <c r="L6" t="n">
-        <v>480954.5857298364</v>
+        <v>480919.8478044009</v>
       </c>
       <c r="M6" t="n">
-        <v>443506.847825386</v>
+        <v>443472.1098999497</v>
       </c>
       <c r="N6" t="n">
-        <v>576224.8235208546</v>
+        <v>576190.0855954187</v>
       </c>
       <c r="O6" t="n">
-        <v>576224.8235208546</v>
+        <v>576190.0855954186</v>
       </c>
       <c r="P6" t="n">
-        <v>576224.8235208545</v>
+        <v>576190.0855954187</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627838</v>
+        <v>933.7024595627832</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856971</v>
+        <v>640.1406900856964</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,19 +26814,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.966615459035109e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933056</v>
+        <v>319.647445793305</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788899</v>
+        <v>434.2730407788905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.426810084191</v>
+        <v>376.4268100841903</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139511</v>
+        <v>532.567598013952</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841909</v>
+        <v>376.42681008419</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139508</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084191</v>
+        <v>376.4268100841903</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139511</v>
+        <v>532.567598013952</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>93.41938813275246</v>
+        <v>54.56093585769327</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>50.51920908443734</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.802263929009086</v>
       </c>
     </row>
     <row r="4">
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27555,10 +27555,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>122.6927531030011</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>26.28664105413765</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>152.7039266531025</v>
+        <v>105.6401949994328</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.06360943114899</v>
+        <v>89.4392528324457</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27743,25 +27743,25 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>63.00172017663348</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>61.73429993081353</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>91.21800789216053</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>108.6067276056175</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27941,10 +27941,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.776449164527889</v>
       </c>
       <c r="G9" t="n">
-        <v>1.776449164525189</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.9615342899036</v>
+        <v>179.024491779232</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29041,13 +29041,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.590653145880544e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="33">
@@ -31045,16 +31045,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31063,25 +31063,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,22 +31197,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31224,19 +31224,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75357772688556</v>
+        <v>3.753577726885558</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546676</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972536</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763195</v>
+        <v>477.4691627763192</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354936</v>
+        <v>592.3427171354932</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359946</v>
+        <v>659.0954050359942</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525082</v>
+        <v>669.7602577525079</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307899</v>
+        <v>632.4356192307896</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983025</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542133</v>
+        <v>405.3441667542131</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864753</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.5346524514048</v>
+        <v>85.53465245140474</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508448</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.39634732035141</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026277</v>
+        <v>69.14683309026273</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502171</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571284</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617171</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152219</v>
+        <v>522.3360580152216</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519088</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947593</v>
+        <v>383.5050724947591</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.3629847463703</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366403</v>
+        <v>37.30405581366401</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133943</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.68372574675256</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415884</v>
+        <v>50.63422518415882</v>
       </c>
       <c r="J10" t="n">
         <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023128</v>
+        <v>263.9316641023126</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462352</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046257</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
         <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307421</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3427477865878</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942758</v>
+        <v>7.194100917942754</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650342</v>
+        <v>0.09183958618650337</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>446.0127311990647</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>746.4857620875797</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>217.43861174566</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877692</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>197.7888359819416</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705674</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313389</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655063</v>
+        <v>356.576302165506</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087219</v>
+        <v>428.7491718087215</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559173</v>
+        <v>440.347194155917</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091032</v>
+        <v>402.3374078091028</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343033</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797639</v>
+        <v>183.0384768797636</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234315</v>
+        <v>20.20013907234301</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127605</v>
+        <v>188.9976037816848</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758581</v>
+        <v>186.4616124758579</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772543</v>
+        <v>640.1406900856964</v>
       </c>
       <c r="M9" t="n">
-        <v>621.9919601401317</v>
+        <v>366.7338065396985</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856971</v>
+        <v>390.9943459318883</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074644</v>
+        <v>335.2392020074641</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804291</v>
+        <v>285.214531785818</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603489</v>
+        <v>116.3812106603488</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783586</v>
+        <v>24.53548676783578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873327</v>
+        <v>25.6802301787332</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513692</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093287</v>
+        <v>277.9141240093286</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641534</v>
+        <v>303.5155410641532</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254638</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228595</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191275</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770464</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998997</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998999</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683844</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>615.1440500042464</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
